--- a/data/542/KRSE/KOSPI Index - Weekly.xlsx
+++ b/data/542/KRSE/KOSPI Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CPX2"/>
+  <dimension ref="A1:CPY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12694,15 +12694,20 @@
       </c>
       <c r="CPV1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="CPW1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CPW1" s="1" t="inlineStr">
+      <c r="CPX1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CPX1" s="1" t="inlineStr">
+      <c r="CPY1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20092,19 +20097,22 @@
         <v>2729.98</v>
       </c>
       <c r="CPU2" t="n">
-        <v>2757.65</v>
-      </c>
-      <c r="CPV2" t="inlineStr">
+        <v>2739.85</v>
+      </c>
+      <c r="CPV2" t="n">
+        <v>2733.82</v>
+      </c>
+      <c r="CPW2" t="inlineStr">
         <is>
           <t>KOSPI</t>
         </is>
       </c>
-      <c r="CPW2" t="inlineStr">
+      <c r="CPX2" t="inlineStr">
         <is>
           <t>KOSPI Composite Stock Price Index, Close Price</t>
         </is>
       </c>
-      <c r="CPX2" t="inlineStr">
+      <c r="CPY2" t="inlineStr">
         <is>
           <t>Index: 1972.01.04=100</t>
         </is>
